--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -538,7 +538,9 @@
       <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -550,7 +552,9 @@
       <c r="C3" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -562,7 +566,9 @@
       <c r="C4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -574,7 +580,9 @@
       <c r="C5" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -586,7 +594,9 @@
       <c r="C6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -598,7 +608,9 @@
       <c r="C7" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
@@ -610,7 +622,9 @@
       <c r="C8" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -622,7 +636,9 @@
       <c r="C9" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
@@ -634,7 +650,9 @@
       <c r="C10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -646,7 +664,9 @@
       <c r="C11" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
@@ -658,7 +678,9 @@
       <c r="C12" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
